--- a/margin_check.xlsx
+++ b/margin_check.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\file_sys\work\workspace\osrs_stocks_1_23_20\osrs_stocks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E9C481-66EF-43CA-B4B0-00E6AA736F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -41,16 +47,13 @@
   </si>
   <si>
     <t>Start Minute</t>
-  </si>
-  <si>
-    <t>shark</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +90,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -133,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,9 +176,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,6 +228,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -374,14 +421,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,93 +457,6 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>2019</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <v>18</v>
-      </c>
-      <c r="I2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>2019</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>2019</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/margin_check.xlsx
+++ b/margin_check.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\file_sys\work\workspace\osrs_stocks_1_23_20\osrs_stocks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E9C481-66EF-43CA-B4B0-00E6AA736F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -47,13 +41,85 @@
   </si>
   <si>
     <t>Start Minute</t>
+  </si>
+  <si>
+    <t>adamantite ore</t>
+  </si>
+  <si>
+    <t>runite ore</t>
+  </si>
+  <si>
+    <t>saradomin brew(4)</t>
+  </si>
+  <si>
+    <t>blood rune</t>
+  </si>
+  <si>
+    <t>grimy ranarr weed</t>
+  </si>
+  <si>
+    <t>stamina potion(4)</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>raw shark</t>
+  </si>
+  <si>
+    <t>wyvern bones</t>
+  </si>
+  <si>
+    <t>dragon bones</t>
+  </si>
+  <si>
+    <t>zulrah's scales</t>
+  </si>
+  <si>
+    <t>death rune</t>
+  </si>
+  <si>
+    <t>abyssal whip</t>
+  </si>
+  <si>
+    <t>occult necklace</t>
+  </si>
+  <si>
+    <t>toxic blowpipe (empty)</t>
+  </si>
+  <si>
+    <t>dharok's greataxe</t>
+  </si>
+  <si>
+    <t>karil's leathertop</t>
+  </si>
+  <si>
+    <t>prayer potion(4)</t>
+  </si>
+  <si>
+    <t>super restore(4)</t>
+  </si>
+  <si>
+    <t>prayer potion(3)</t>
+  </si>
+  <si>
+    <t>prayer potion(2)</t>
+  </si>
+  <si>
+    <t>super restore(3)</t>
+  </si>
+  <si>
+    <t>dinh's bulwark</t>
+  </si>
+  <si>
+    <t>tome of fire (empty)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,14 +156,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -144,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,27 +234,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,24 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,16 +443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,6 +477,789 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>909</v>
+      </c>
+      <c r="D2">
+        <v>912</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>11071</v>
+      </c>
+      <c r="D3">
+        <v>11120</v>
+      </c>
+      <c r="E3">
+        <v>2020</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>6130</v>
+      </c>
+      <c r="D4">
+        <v>6199</v>
+      </c>
+      <c r="E4">
+        <v>2020</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>337</v>
+      </c>
+      <c r="D5">
+        <v>340</v>
+      </c>
+      <c r="E5">
+        <v>2020</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>8750</v>
+      </c>
+      <c r="D6">
+        <v>8769</v>
+      </c>
+      <c r="E6">
+        <v>2020</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>6204</v>
+      </c>
+      <c r="D7">
+        <v>6275</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1145</v>
+      </c>
+      <c r="D8">
+        <v>1147</v>
+      </c>
+      <c r="E8">
+        <v>2020</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1145</v>
+      </c>
+      <c r="D9">
+        <v>1146</v>
+      </c>
+      <c r="E9">
+        <v>2020</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1052</v>
+      </c>
+      <c r="D10">
+        <v>1055</v>
+      </c>
+      <c r="E10">
+        <v>2020</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>2919</v>
+      </c>
+      <c r="D11">
+        <v>2942</v>
+      </c>
+      <c r="E11">
+        <v>2020</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>2953</v>
+      </c>
+      <c r="D12">
+        <v>2954</v>
+      </c>
+      <c r="E12">
+        <v>2020</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>6313</v>
+      </c>
+      <c r="D13">
+        <v>6449</v>
+      </c>
+      <c r="E13">
+        <v>2020</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>245</v>
+      </c>
+      <c r="D14">
+        <v>249</v>
+      </c>
+      <c r="E14">
+        <v>2020</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>337</v>
+      </c>
+      <c r="D15">
+        <v>339</v>
+      </c>
+      <c r="E15">
+        <v>2020</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>216</v>
+      </c>
+      <c r="D16">
+        <v>218</v>
+      </c>
+      <c r="E16">
+        <v>2020</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>2661553</v>
+      </c>
+      <c r="D17">
+        <v>2662377</v>
+      </c>
+      <c r="E17">
+        <v>2020</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>577011</v>
+      </c>
+      <c r="D18">
+        <v>585000</v>
+      </c>
+      <c r="E18">
+        <v>2020</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>4991609</v>
+      </c>
+      <c r="D19">
+        <v>5016000</v>
+      </c>
+      <c r="E19">
+        <v>2020</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>721007</v>
+      </c>
+      <c r="D20">
+        <v>735000</v>
+      </c>
+      <c r="E20">
+        <v>2020</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>1878882</v>
+      </c>
+      <c r="D21">
+        <v>1910000</v>
+      </c>
+      <c r="E21">
+        <v>2020</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>11910</v>
+      </c>
+      <c r="D22">
+        <v>11958</v>
+      </c>
+      <c r="E22">
+        <v>2020</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>13116</v>
+      </c>
+      <c r="D23">
+        <v>13239</v>
+      </c>
+      <c r="E23">
+        <v>2020</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>8920</v>
+      </c>
+      <c r="D24">
+        <v>8998</v>
+      </c>
+      <c r="E24">
+        <v>2020</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>5897</v>
+      </c>
+      <c r="D25">
+        <v>7744</v>
+      </c>
+      <c r="E25">
+        <v>2020</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>17</v>
+      </c>
+      <c r="I25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>9752</v>
+      </c>
+      <c r="D26">
+        <v>9895</v>
+      </c>
+      <c r="E26">
+        <v>2020</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>4487106</v>
+      </c>
+      <c r="D27">
+        <v>4499123</v>
+      </c>
+      <c r="E27">
+        <v>2020</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="H27">
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>1229412</v>
+      </c>
+      <c r="D28">
+        <v>1241000</v>
+      </c>
+      <c r="E28">
+        <v>2020</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>17</v>
+      </c>
+      <c r="I28">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
